--- a/Tests Data/Renogy RNG-50DB-H – 50 W/Single-diode model/STC/Single-diode emulator - Renogy RNG-50DB-H – 50 W (STC).xlsx
+++ b/Tests Data/Renogy RNG-50DB-H – 50 W/Single-diode model/STC/Single-diode emulator - Renogy RNG-50DB-H – 50 W (STC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\Renogy RNG-50DB-H – 50 W\Single-diode model\STC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage_GeePs\Test Data - new\Renogy RNG-50DB-H – 50 W\Single-diode model\STC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C6F20-F1FB-460B-B516-A3E51B1021D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504B214-EF34-456B-958B-974B9AB567CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Error (%)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Vs_test</t>
   </si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>Rend. (%)</t>
+  </si>
+  <si>
+    <t>R Error (%)</t>
+  </si>
+  <si>
+    <t>Vs Error (%)</t>
+  </si>
+  <si>
+    <t>Is Error (%)</t>
   </si>
 </sst>
 </file>
@@ -470,556 +476,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B8D570-ED79-418B-A1D1-0F000D275672}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:N13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>28.799999999999997</v>
+        <v>19.2</v>
       </c>
       <c r="D2">
-        <v>7.19</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="E2">
-        <v>3.09</v>
+        <v>2.44</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2" si="0">D2*E2</f>
-        <v>22.217099999999999</v>
+        <f>D2*E2</f>
+        <v>12.346399999999999</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G3" si="1">D2/E2</f>
-        <v>2.3268608414239487</v>
+        <f>D2/E2</f>
+        <v>2.0737704918032787</v>
       </c>
       <c r="H2">
-        <v>24.066233</v>
+        <v>22.825958</v>
       </c>
       <c r="I2">
-        <v>9.5846040000000006</v>
+        <v>12.842241</v>
       </c>
       <c r="J2">
-        <v>7.3203259999999997</v>
+        <v>5.1794130000000003</v>
       </c>
       <c r="K2">
-        <v>2.9153889999999998</v>
+        <v>2.9140190000000001</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2" si="2">J2/K2</f>
-        <v>2.5109259862063005</v>
+        <f>J2/K2</f>
+        <v>1.7774122268935104</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2" si="3">(ABS(L2-G2)/G2)*100</f>
-        <v>7.91044919857395</v>
+        <f>ABS(J2-D2)/D2*100</f>
+        <v>2.359940711462464</v>
       </c>
       <c r="N2">
-        <f>(F4/C4)*100</f>
-        <v>86.406140350877195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <f>ABS(K2-E2)/E2*100</f>
+        <v>19.427008196721321</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O18" si="0">(ABS(L2-G2)/G2)*100</f>
+        <v>14.290793801973015</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P18" si="1">(F2/C2)*100</f>
+        <v>64.30416666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="C3">
         <f>A3*B3</f>
-        <v>36</v>
+        <v>39.6</v>
       </c>
       <c r="D3">
-        <v>10.81</v>
+        <v>11.15</v>
       </c>
       <c r="E3">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="4">D3*E3</f>
-        <v>29.511300000000002</v>
+        <f>D3*E3</f>
+        <v>32.223500000000001</v>
       </c>
       <c r="G3">
+        <f>D3/E3</f>
+        <v>3.8581314878892732</v>
+      </c>
+      <c r="H3">
+        <v>22.825714000000001</v>
+      </c>
+      <c r="I3">
+        <v>5.812697</v>
+      </c>
+      <c r="J3">
+        <v>11.411573000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.9060220000000001</v>
+      </c>
+      <c r="L3">
+        <f>J3/K3</f>
+        <v>3.9268708220378237</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M18" si="2">ABS(J3-D3)/D3*100</f>
+        <v>2.3459461883408097</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N18" si="3">ABS(K3-E3)/E3*100</f>
+        <v>0.55439446366781941</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>1.7816742214287977</v>
+      </c>
+      <c r="P3">
         <f t="shared" si="1"/>
-        <v>3.9597069597069599</v>
-      </c>
-      <c r="H3">
-        <v>24.055067000000001</v>
-      </c>
-      <c r="I3">
-        <v>6.3416360000000003</v>
-      </c>
-      <c r="J3">
-        <v>11.047176</v>
-      </c>
-      <c r="K3">
-        <v>2.912366</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="5">J3/K3</f>
-        <v>3.793196322165552</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M8" si="6">(ABS(L3-G3)/G3)*100</f>
-        <v>4.2051252589088195</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N8" si="7">(F3/C3)*100</f>
-        <v>81.975833333333341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>81.37247474747474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="C4">
-        <f>A4*B4</f>
-        <v>45.6</v>
+        <f t="shared" ref="C4:C16" si="4">A2*B4</f>
+        <v>49.8</v>
       </c>
       <c r="D4">
-        <v>14.38</v>
+        <v>14.96</v>
       </c>
       <c r="E4">
+        <v>2.84</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>42.486400000000003</v>
+      </c>
+      <c r="G4">
+        <f>D4/E4</f>
+        <v>5.2676056338028179</v>
+      </c>
+      <c r="H4">
+        <v>22.534130000000001</v>
+      </c>
+      <c r="I4">
+        <v>4.2845079999999998</v>
+      </c>
+      <c r="J4">
+        <v>15.187758000000001</v>
+      </c>
+      <c r="K4">
+        <v>2.8877120000000001</v>
+      </c>
+      <c r="L4">
+        <f>J4/K4</f>
+        <v>5.2594434625059563</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.5224465240641689</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1.6800000000000073</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.15495031071582152</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>85.314056224899616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.87</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="4"/>
+        <v>52.2</v>
+      </c>
+      <c r="D5">
+        <v>15.97</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v>45.354799999999997</v>
+      </c>
+      <c r="G5">
+        <f>D5/E5</f>
+        <v>5.6232394366197189</v>
+      </c>
+      <c r="H5">
+        <v>22.533111999999999</v>
+      </c>
+      <c r="I5">
+        <v>4.0061090000000004</v>
+      </c>
+      <c r="J5">
+        <v>16.149439000000001</v>
+      </c>
+      <c r="K5">
+        <v>2.8711709999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L15" si="5">J5/K5</f>
+        <v>5.624687279162405</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.1236005009392633</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1.0975704225352134</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2.5747481660791188E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>86.886590038314168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0.89</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="4"/>
+        <v>53.4</v>
+      </c>
+      <c r="D6">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v>46.360799999999998</v>
+      </c>
+      <c r="G6">
+        <f>D6/E6</f>
+        <v>5.8297872340425538</v>
+      </c>
+      <c r="H6">
+        <v>22.533306</v>
+      </c>
+      <c r="I6">
+        <v>3.8730920000000002</v>
+      </c>
+      <c r="J6">
+        <v>16.624013999999999</v>
+      </c>
+      <c r="K6">
+        <v>2.8573849999999998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6" si="6">J6/K6</f>
+        <v>5.81791183197224</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.1193065693430515</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1.3257092198581562</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.20370215230100294</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>86.817977528089884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>17.09</v>
+      </c>
+      <c r="E7">
         <v>2.74</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="4"/>
-        <v>39.401200000000003</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G8" si="8">D4/E4</f>
-        <v>5.2481751824817513</v>
-      </c>
-      <c r="H4">
-        <v>24.049904000000002</v>
-      </c>
-      <c r="I4">
-        <v>4.7643649999999997</v>
-      </c>
-      <c r="J4">
-        <v>14.633799</v>
-      </c>
-      <c r="K4">
-        <v>2.8990040000000001</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="5"/>
-        <v>5.0478712688909706</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="6"/>
-        <v>3.8166392436629981</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="7"/>
-        <v>86.406140350877195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>0.83</v>
-      </c>
-      <c r="C5">
-        <f>A5*B5</f>
-        <v>49.8</v>
-      </c>
-      <c r="D5">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="E5">
-        <v>2.65</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
-        <v>43.698499999999996</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="8"/>
-        <v>6.222641509433962</v>
-      </c>
-      <c r="H5">
-        <v>23.951167999999999</v>
-      </c>
-      <c r="I5">
-        <v>4.0692409999999999</v>
-      </c>
-      <c r="J5">
-        <v>16.772703</v>
-      </c>
-      <c r="K5">
-        <v>2.8496380000000001</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>5.8859065607631562</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>5.4114470223022151</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="7"/>
-        <v>87.747991967871485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>0.86</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C8" si="9">A6*B6</f>
-        <v>51.6</v>
-      </c>
-      <c r="D6">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
-        <v>45.425000000000004</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="8"/>
-        <v>7.2680000000000007</v>
-      </c>
-      <c r="H6">
-        <v>23.976216999999998</v>
-      </c>
-      <c r="I6">
-        <v>3.52643</v>
-      </c>
-      <c r="J6">
-        <v>18.451015000000002</v>
-      </c>
-      <c r="K6">
-        <v>2.7137820000000001</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>6.7990041204488794</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>6.4528877208464674</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="7"/>
-        <v>88.032945736434115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>0.8</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>19.21</v>
-      </c>
-      <c r="E7">
-        <v>2.17</v>
-      </c>
       <c r="F7">
-        <f t="shared" si="4"/>
-        <v>41.685699999999997</v>
+        <f t="shared" ref="F7" si="7">D7*E7</f>
+        <v>46.826600000000006</v>
       </c>
       <c r="G7">
-        <f t="shared" si="8"/>
-        <v>8.8525345622119822</v>
+        <f t="shared" ref="G7" si="8">D7/E7</f>
+        <v>6.2372262773722627</v>
       </c>
       <c r="H7">
-        <v>23.995971999999998</v>
+        <v>22.532803000000001</v>
       </c>
       <c r="I7">
-        <v>2.966523</v>
+        <v>3.6949920000000001</v>
       </c>
       <c r="J7">
-        <v>19.458088</v>
+        <v>17.250757</v>
       </c>
       <c r="K7">
-        <v>2.4055230000000001</v>
+        <v>2.828827</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>8.0889220348340043</v>
+        <v>6.0982014806843967</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
-        <v>8.6259197522655491</v>
+        <f t="shared" si="2"/>
+        <v>0.94064950263312042</v>
       </c>
       <c r="N7">
-        <f t="shared" si="7"/>
-        <v>86.845208333333318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.2418613138686041</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>2.2289522698932278</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>86.715925925925944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="C8">
-        <f t="shared" si="9"/>
-        <v>42.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>55.2</v>
       </c>
       <c r="D8">
-        <v>20.239999999999998</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="E8">
-        <v>1.84</v>
+        <v>2.74</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
-        <v>37.241599999999998</v>
+        <f>D8*E8</f>
+        <v>47.539000000000009</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
-        <v>10.999999999999998</v>
+        <f t="shared" ref="G8:G12" si="9">D8/E8</f>
+        <v>6.3321167883211675</v>
       </c>
       <c r="H8">
-        <v>24.001507</v>
+        <v>22.534594999999999</v>
       </c>
       <c r="I8">
-        <v>2.436483</v>
+        <v>3.6172719999999998</v>
       </c>
       <c r="J8">
-        <v>20.484665</v>
+        <v>17.517166</v>
       </c>
       <c r="K8">
-        <v>2.079475</v>
+        <v>2.8118699999999999</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>9.8508830353815267</v>
+        <v>6.2297211464256881</v>
       </c>
       <c r="M8">
-        <f t="shared" si="6"/>
-        <v>10.446517860167926</v>
+        <f t="shared" si="2"/>
+        <v>0.96349279538903831</v>
       </c>
       <c r="N8">
-        <f t="shared" si="7"/>
-        <v>87.421596244131464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.6229927007299145</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1.6170839123551222</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>86.121376811594217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
       <c r="B9">
-        <v>0.56000000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9" si="10">A9*B9</f>
-        <v>33.6</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>20.84</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="E9">
-        <v>1.38</v>
+        <v>2.8</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="11">D9*E9</f>
-        <v>28.759199999999996</v>
+        <f>D9*E9</f>
+        <v>49.728000000000002</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="12">D9/E9</f>
-        <v>15.10144927536232</v>
+        <f t="shared" ref="G9" si="10">D9/E9</f>
+        <v>6.3428571428571434</v>
       </c>
       <c r="H9">
-        <v>24.003086</v>
+        <v>22.531389000000001</v>
       </c>
       <c r="I9">
-        <v>1.8958930000000001</v>
+        <v>3.4912100000000001</v>
       </c>
       <c r="J9">
-        <v>21.060669000000001</v>
+        <v>17.929047000000001</v>
       </c>
       <c r="K9">
-        <v>1.6634850000000001</v>
+        <v>2.7780830000000001</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9" si="13">J9/K9</f>
-        <v>12.660570428948864</v>
+        <f t="shared" ref="L9" si="11">J9/K9</f>
+        <v>6.4537477821936928</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9" si="14">(ABS(L9-G9)/G9)*100</f>
-        <v>16.163209251682193</v>
+        <f t="shared" si="2"/>
+        <v>0.95184121621621087</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9" si="15">(F9/C9)*100</f>
-        <v>85.592857142857127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0.78274999999999095</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1.7482758453960492</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>87.242105263157896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>0.43</v>
+        <v>0.92</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C13" si="16">A10*B10</f>
-        <v>25.8</v>
+        <f t="shared" si="4"/>
+        <v>55.2</v>
       </c>
       <c r="D10">
-        <v>21.31</v>
+        <v>18.34</v>
       </c>
       <c r="E10">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F13" si="17">D10*E10</f>
-        <v>21.523099999999999</v>
+        <f>D10*E10</f>
+        <v>48.4176</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G13" si="18">D10/E10</f>
-        <v>21.099009900990097</v>
+        <f>D10/E10</f>
+        <v>6.9469696969696964</v>
       </c>
       <c r="H10">
-        <v>24.005049</v>
+        <v>22.532783999999999</v>
       </c>
       <c r="I10">
-        <v>1.4870810000000001</v>
+        <v>3.3135530000000002</v>
       </c>
       <c r="J10">
-        <v>21.505324999999999</v>
+        <v>18.462983999999999</v>
       </c>
       <c r="K10">
-        <v>1.3322259999999999</v>
+        <v>2.7150699999999999</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L13" si="19">J10/K10</f>
-        <v>16.14240001321097</v>
+        <f t="shared" si="5"/>
+        <v>6.8001871038315773</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M13" si="20">(ABS(L10-G10)/G10)*100</f>
-        <v>23.492144470468883</v>
+        <f t="shared" si="2"/>
+        <v>0.67057797164666777</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N13" si="21">(F10/C10)*100</f>
-        <v>83.422868217054258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2.8435606060605965</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>2.1129010135476243</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>87.713043478260872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.93</v>
       </c>
       <c r="C11">
+        <f t="shared" si="4"/>
+        <v>55.800000000000004</v>
+      </c>
+      <c r="D11">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E11">
+        <v>2.62</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v>48.679600000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>7.0916030534351133</v>
+      </c>
+      <c r="H11">
+        <v>22.532482000000002</v>
+      </c>
+      <c r="I11">
+        <v>3.2184379999999999</v>
+      </c>
+      <c r="J11">
+        <v>18.722518999999998</v>
+      </c>
+      <c r="K11">
+        <v>2.6742400000000002</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>7.0010616100275209</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0.76705597416577009</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>2.0702290076335901</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1.2767415593535636</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>87.239426523297482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0.94</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>56.4</v>
+      </c>
+      <c r="D12">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E12">
+        <v>2.6</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v>49.244000000000007</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>7.2846153846153845</v>
+      </c>
+      <c r="H12">
+        <v>22.533628</v>
+      </c>
+      <c r="I12">
+        <v>3.0747490000000002</v>
+      </c>
+      <c r="J12">
+        <v>19.081296999999999</v>
+      </c>
+      <c r="K12">
+        <v>2.6036730000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>7.3286073174319499</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.74602428722279834</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>0.1412692307692322</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.60390192884408733</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>87.312056737588662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>0.9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>19.41</v>
+      </c>
+      <c r="E13">
+        <v>2.42</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="12">D13*E13</f>
+        <v>46.972200000000001</v>
+      </c>
+      <c r="G13">
+        <f>D13/E13</f>
+        <v>8.0206611570247937</v>
+      </c>
+      <c r="H13">
+        <v>22.533055999999998</v>
+      </c>
+      <c r="I13">
+        <v>2.8748619999999998</v>
+      </c>
+      <c r="J13">
+        <v>19.507757000000002</v>
+      </c>
+      <c r="K13">
+        <v>2.4888819999999998</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>7.8379597747100922</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0.50364245234415983</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>2.8463636363636318</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>2.277884313248725</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>86.985555555555564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.87</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>52.2</v>
+      </c>
+      <c r="D14">
+        <v>19.78</v>
+      </c>
+      <c r="E14">
+        <v>2.29</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="12"/>
+        <v>45.296200000000006</v>
+      </c>
+      <c r="G14">
+        <f>D14/E14</f>
+        <v>8.6375545851528379</v>
+      </c>
+      <c r="H14">
+        <v>22.535361999999999</v>
+      </c>
+      <c r="I14">
+        <v>2.6735730000000002</v>
+      </c>
+      <c r="J14">
+        <v>19.885262999999998</v>
+      </c>
+      <c r="K14">
+        <v>2.3591679999999999</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>8.428930453447995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0.53216885743173514</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>3.0204366812227028</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2.415314770495907</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>86.774329501915716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>0.79</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>47.400000000000006</v>
+      </c>
+      <c r="D15">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="13">D15*E15</f>
+        <v>40.823099999999997</v>
+      </c>
+      <c r="G15">
+        <f>D15/E15</f>
+        <v>10.104477611940299</v>
+      </c>
+      <c r="H15">
+        <v>22.533543000000002</v>
+      </c>
+      <c r="I15">
+        <v>2.3436949999999999</v>
+      </c>
+      <c r="J15">
+        <v>20.378786000000002</v>
+      </c>
+      <c r="K15">
+        <v>2.11958</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>9.6145396729540771</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.33868045297884247</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>5.4517412935323506</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>4.8487211096125318</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>86.124683544303778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0.75</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>20.62</v>
+      </c>
+      <c r="E16">
+        <v>1.87</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>38.559400000000004</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="14">D16/E16</f>
+        <v>11.026737967914439</v>
+      </c>
+      <c r="H16">
+        <v>22.535171999999999</v>
+      </c>
+      <c r="I16">
+        <v>2.1489539999999998</v>
+      </c>
+      <c r="J16">
+        <v>20.665606</v>
+      </c>
+      <c r="K16">
+        <v>1.970672</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L18" si="15">J16/K16</f>
+        <v>10.486578182467706</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0.22117361784674766</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>5.383529411764699</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>4.8986362695702708</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>85.687555555555562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>0.44</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C18" si="16">A15*B17</f>
+        <v>26.4</v>
+      </c>
+      <c r="D17">
+        <v>21.49</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F18" si="17">D17*E17</f>
+        <v>21.49</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="14"/>
+        <v>21.49</v>
+      </c>
+      <c r="H17">
+        <v>22.548850999999999</v>
+      </c>
+      <c r="I17">
+        <v>1.2683180000000001</v>
+      </c>
+      <c r="J17">
+        <v>21.433184000000001</v>
+      </c>
+      <c r="K17">
+        <v>1.2055640000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="15"/>
+        <v>17.778553440547327</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.26438343415541071</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>20.556400000000007</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>17.270574962553148</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>81.401515151515142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>0.12</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>21.91</v>
-      </c>
-      <c r="E11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F11">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="D18">
+        <v>22.3</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="17"/>
-        <v>6.3538999999999994</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="18"/>
-        <v>75.551724137931046</v>
-      </c>
-      <c r="H11">
-        <v>24.004024999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.724881</v>
-      </c>
-      <c r="J11">
-        <v>22.052029000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.66593400000000003</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="19"/>
-        <v>33.114436265455737</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="20"/>
-        <v>56.169847024271277</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="21"/>
-        <v>52.949166666666656</v>
+        <v>1.115</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>446</v>
+      </c>
+      <c r="H18">
+        <v>22.826053999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.47076800000000002</v>
+      </c>
+      <c r="J18">
+        <v>22.157703000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.45698299999999997</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="15"/>
+        <v>48.486930586039314</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0.63810313901344951</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>813.96599999999989</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>89.128490899991192</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>15.486111111111111</v>
       </c>
     </row>
   </sheetData>
